--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request400.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request400.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.144</v>
+        <v>20.144</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.216</v>
+        <v>0.2152</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0616</v>
+        <v>0.0624</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0624</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.032</v>
+        <v>0.0312</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0208</v>
+        <v>0.0216</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0176</v>
+        <v>0.0168</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.9808</v>
+        <v>7.9816</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4312</v>
+        <v>0.4296</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1808</v>
+        <v>0.1816</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3664000000000001</v>
+        <v>0.3656</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7696000000000001</v>
+        <v>0.7704000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2616</v>
+        <v>0.2608</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03920000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3024000000000001</v>
+        <v>0.3016</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0144</v>
+        <v>0.0152</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4184</v>
+        <v>0.4176</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9488000000000001</v>
+        <v>0.9496</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.2792</v>
+        <v>11.28</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19.9464</v>
+        <v>19.9456</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>55.68320000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="91">
@@ -2001,7 +2001,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C143" t="n">
         <v>312501</v>
@@ -2012,7 +2012,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.632</v>
+        <v>8.632800000000001</v>
       </c>
       <c r="C144" t="n">
         <v>312501</v>
@@ -2147,7 +2147,7 @@
         <v>2.524</v>
       </c>
       <c r="C156" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="157">
@@ -2158,7 +2158,7 @@
         <v>2.46</v>
       </c>
       <c r="C157" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="158">
@@ -2169,7 +2169,7 @@
         <v>2.104</v>
       </c>
       <c r="C158" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="159">
@@ -2180,7 +2180,7 @@
         <v>15.94</v>
       </c>
       <c r="C159" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="160">
@@ -2609,7 +2609,7 @@
         <v>10.132</v>
       </c>
       <c r="C198" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="199">
@@ -3002,7 +3002,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.9632</v>
+        <v>1.964</v>
       </c>
       <c r="C234" t="n">
         <v>1250001</v>
@@ -3013,7 +3013,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.376</v>
+        <v>0.3752</v>
       </c>
       <c r="C235" t="n">
         <v>1250001</v>
@@ -3068,7 +3068,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.4472</v>
+        <v>0.448</v>
       </c>
       <c r="C240" t="n">
         <v>1250001</v>
@@ -3079,7 +3079,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.908</v>
+        <v>0.9072</v>
       </c>
       <c r="C241" t="n">
         <v>1250001</v>
@@ -3291,7 +3291,7 @@
         <v>77.9008</v>
       </c>
       <c r="C260" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="261">
@@ -3992,7 +3992,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>19.9464</v>
+        <v>19.9472</v>
       </c>
       <c r="C324" t="n">
         <v>2500001</v>
@@ -4003,7 +4003,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>68.38560000000001</v>
+        <v>68.3848</v>
       </c>
       <c r="C325" t="n">
         <v>2500001</v>
@@ -4160,7 +4160,7 @@
         <v>77.90240000000001</v>
       </c>
       <c r="C339" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="340">
@@ -5029,7 +5029,7 @@
         <v>77.90240000000001</v>
       </c>
       <c r="C418" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="419">
@@ -5048,7 +5048,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>1.4248</v>
+        <v>1.424</v>
       </c>
       <c r="C420" t="n">
         <v>4062501</v>
@@ -5070,7 +5070,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.8944000000000001</v>
+        <v>0.8952</v>
       </c>
       <c r="C422" t="n">
         <v>4062501</v>
@@ -5785,7 +5785,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>0.4392</v>
+        <v>0.44</v>
       </c>
       <c r="C487" t="n">
         <v>5000001</v>
@@ -5796,7 +5796,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>2.44</v>
+        <v>2.4392</v>
       </c>
       <c r="C488" t="n">
         <v>5000001</v>
@@ -5898,7 +5898,7 @@
         <v>77.9016</v>
       </c>
       <c r="C497" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="498">
@@ -6767,7 +6767,7 @@
         <v>77.9016</v>
       </c>
       <c r="C576" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="577">
@@ -7636,7 +7636,7 @@
         <v>77.9016</v>
       </c>
       <c r="C655" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="656">
@@ -8505,7 +8505,7 @@
         <v>77.9016</v>
       </c>
       <c r="C734" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="735">
@@ -9374,7 +9374,7 @@
         <v>77.9016</v>
       </c>
       <c r="C813" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="814">
@@ -10243,7 +10243,7 @@
         <v>77.9016</v>
       </c>
       <c r="C892" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="893">
@@ -10471,7 +10471,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>416.7672</v>
+        <v>400.7672</v>
       </c>
       <c r="C913" t="n">
         <v>11875001</v>
